--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_DASHBOARD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_DASHBOARD.xlsx
@@ -43,7 +43,7 @@
     <t>As of date: Jun, 2020</t>
   </si>
   <si>
-    <t>Printed on: 2020-09-18 14:47</t>
+    <t>Printed on: 2020-11-12 04:55</t>
   </si>
   <si>
     <t>Previous Cycle: Mar, 2020</t>
@@ -397,7 +397,7 @@
   <si>
     <t xml:space="preserve">EVE at Risk
  EVE: 17,441
- Duration: 2.73</t>
+ Duration: 2.72</t>
   </si>
   <si>
     <t>% Chg in EVE</t>
@@ -2241,7 +2241,7 @@
         <v>3.4206848132894296</v>
       </c>
       <c r="D20" s="61">
-        <v>1.88838484645808</v>
+        <v>1.88824617506461</v>
       </c>
       <c r="E20" s="57">
         <v>112685</v>
@@ -2257,13 +2257,13 @@
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="54">
-        <v>21.3250134564751</v>
+        <v>21.324760958433</v>
       </c>
       <c r="L20" s="15">
         <v>19.5048102723971</v>
       </c>
       <c r="M20" s="15">
-        <v>1.8202031840780002</v>
+        <v>1.8199506860358987</v>
       </c>
     </row>
     <row r="21">
@@ -2293,13 +2293,13 @@
       </c>
       <c r="J21" s="37"/>
       <c r="K21" s="55">
-        <v>2.7250774197029</v>
+        <v>2.72443972848535</v>
       </c>
       <c r="L21" s="15">
         <v>2.77757795201149</v>
       </c>
       <c r="M21" s="15">
-        <v>-0.052500532308589865</v>
+        <v>-0.053138223526139949</v>
       </c>
     </row>
     <row r="22">
@@ -2313,7 +2313,7 @@
         <v>2.33953337434115</v>
       </c>
       <c r="D22" s="67">
-        <v>2.58780473548539</v>
+        <v>2.5877731025678</v>
       </c>
       <c r="E22" s="62">
         <v>3788</v>
@@ -2329,13 +2329,13 @@
       </c>
       <c r="J22" s="37"/>
       <c r="K22" s="55">
-        <v>-55.7338405177926</v>
+        <v>-55.7337544384045</v>
       </c>
       <c r="L22" s="15">
         <v>-21.9862274065443</v>
       </c>
       <c r="M22" s="15">
-        <v>-33.7476131112483</v>
+        <v>-33.7475270318602</v>
       </c>
     </row>
     <row r="23">
@@ -2346,10 +2346,10 @@
         <v>24556</v>
       </c>
       <c r="C23" s="65">
-        <v>6.81993765570518</v>
+        <v>6.8199376557051705</v>
       </c>
       <c r="D23" s="67">
-        <v>1.36773806978628</v>
+        <v>1.36735857269747</v>
       </c>
       <c r="E23" s="62">
         <v>90087</v>
@@ -2365,13 +2365,13 @@
       </c>
       <c r="J23" s="37"/>
       <c r="K23" s="54">
-        <v>4.50808601105401</v>
+        <v>4.50814614958466</v>
       </c>
       <c r="L23" s="15">
         <v>-12.9864357931773</v>
       </c>
       <c r="M23" s="15">
-        <v>17.494521804231312</v>
+        <v>17.494581942761961</v>
       </c>
     </row>
     <row r="24">
@@ -2385,7 +2385,7 @@
         <v>6.4779096004104506</v>
       </c>
       <c r="D24" s="67">
-        <v>0.887494041813911</v>
+        <v>0.886803205410333</v>
       </c>
       <c r="E24" s="62">
         <v>73106</v>
@@ -2401,13 +2401,13 @@
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="56">
-        <v>215.677388715659</v>
+        <v>215.850134493123</v>
       </c>
       <c r="L24" s="28">
         <v>826.982125929047</v>
       </c>
       <c r="M24" s="28">
-        <v>-611.30473721338808</v>
+        <v>-611.131991435924</v>
       </c>
     </row>
     <row r="25">
@@ -2418,10 +2418,10 @@
         <v>10817</v>
       </c>
       <c r="C25" s="65">
-        <v>7.44430800630807</v>
+        <v>7.44430800630804</v>
       </c>
       <c r="D25" s="67">
-        <v>1.96964688135199</v>
+        <v>1.96964688135245</v>
       </c>
       <c r="E25" s="62">
         <v>16981</v>
@@ -2437,13 +2437,13 @@
       </c>
       <c r="J25" s="37"/>
       <c r="K25" s="55">
-        <v>2.4759199744942397</v>
+        <v>2.47591857113951</v>
       </c>
       <c r="L25" s="15">
         <v>4.39306429538242</v>
       </c>
       <c r="M25" s="15">
-        <v>-1.91714432088818</v>
+        <v>-1.9171457242429097</v>
       </c>
     </row>
     <row r="26" ht="16.5">
@@ -2473,13 +2473,13 @@
       </c>
       <c r="J26" s="37"/>
       <c r="K26" s="56">
-        <v>2004.46434279868</v>
+        <v>2004.46320104636</v>
       </c>
       <c r="L26" s="28">
         <v>4891.57895987686</v>
       </c>
       <c r="M26" s="28">
-        <v>-2887.1146170781794</v>
+        <v>-2887.1157588304995</v>
       </c>
     </row>
     <row r="27">
@@ -2509,13 +2509,13 @@
       </c>
       <c r="J27" s="37"/>
       <c r="K27" s="56">
-        <v>-45.5356572013141</v>
+        <v>-45.536798953638</v>
       </c>
       <c r="L27" s="28">
         <v>1200.47156626261</v>
       </c>
       <c r="M27" s="28">
-        <v>-1246.007223463924</v>
+        <v>-1246.008365216248</v>
       </c>
     </row>
     <row r="28">
@@ -2545,13 +2545,13 @@
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="55">
-        <v>-0.261081503698205</v>
+        <v>-0.261091979386869</v>
       </c>
       <c r="L28" s="15">
         <v>4.9383876813176</v>
       </c>
       <c r="M28" s="15">
-        <v>-5.199469185015805</v>
+        <v>-5.1994796607044691</v>
       </c>
     </row>
     <row r="29">
@@ -2639,7 +2639,7 @@
         <v>400</v>
       </c>
       <c r="D33" s="19">
-        <v>0.0450808601105401</v>
+        <v>0.0450814614958466</v>
       </c>
       <c r="E33" s="19">
         <v>-0.2</v>
@@ -2661,7 +2661,7 @@
         <v>300</v>
       </c>
       <c r="D34" s="19">
-        <v>0.072130250791718</v>
+        <v>0.0721307523283769</v>
       </c>
       <c r="E34" s="19">
         <v>-0.15</v>
@@ -2683,7 +2683,7 @@
         <v>200</v>
       </c>
       <c r="D35" s="19">
-        <v>0.0914211009511323</v>
+        <v>0.0914214977543495</v>
       </c>
       <c r="E35" s="19">
         <v>-0.1</v>
@@ -2713,7 +2713,7 @@
         <v>100</v>
       </c>
       <c r="D36" s="19">
-        <v>0.0500932587874654</v>
+        <v>0.0500934797415025</v>
       </c>
       <c r="E36" s="19">
         <v>-0.07</v>
@@ -2769,7 +2769,7 @@
         <v>-100</v>
       </c>
       <c r="D38" s="19">
-        <v>-0.047165016349053</v>
+        <v>-0.0471651615859106</v>
       </c>
       <c r="E38" s="19">
         <v>-0.07</v>
@@ -2799,7 +2799,7 @@
         <v>-200</v>
       </c>
       <c r="D39" s="19">
-        <v>-0.047165016349053</v>
+        <v>-0.0471651615859106</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="40"/>
@@ -2849,7 +2849,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="19">
-        <v>0.039003479849427</v>
+        <v>0.0390036525274254</v>
       </c>
       <c r="E41" s="19">
         <v>-0.15</v>
@@ -2907,7 +2907,7 @@
         <v>400</v>
       </c>
       <c r="D43" s="19">
-        <v>0.170659763227204</v>
+        <v>0.170661816770679</v>
       </c>
       <c r="E43" s="19">
         <v>-0.2</v>
@@ -2937,7 +2937,7 @@
         <v>300</v>
       </c>
       <c r="D44" s="19">
-        <v>0.190805626825786</v>
+        <v>0.190807308402397</v>
       </c>
       <c r="E44" s="19">
         <v>-0.15</v>
@@ -2967,7 +2967,7 @@
         <v>200</v>
       </c>
       <c r="D45" s="19">
-        <v>0.19896700255742</v>
+        <v>0.198968308252627</v>
       </c>
       <c r="E45" s="19">
         <v>-0.1</v>
@@ -2997,7 +2997,7 @@
         <v>100</v>
       </c>
       <c r="D46" s="19">
-        <v>0.142212248359719</v>
+        <v>0.142212975400498</v>
       </c>
       <c r="E46" s="19">
         <v>-0.07</v>
@@ -3053,7 +3053,7 @@
         <v>-100</v>
       </c>
       <c r="D48" s="19">
-        <v>-0.112091406387793</v>
+        <v>-0.112091986618546</v>
       </c>
       <c r="E48" s="19">
         <v>-0.07</v>
@@ -3083,7 +3083,7 @@
         <v>-200</v>
       </c>
       <c r="D49" s="19">
-        <v>-0.112091406387793</v>
+        <v>-0.112091986618546</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="40"/>
@@ -3125,7 +3125,7 @@
         <v>67</v>
       </c>
       <c r="D51" s="19">
-        <v>0.126821870232362</v>
+        <v>0.126822411565315</v>
       </c>
       <c r="E51" s="19">
         <v>-0.15</v>
@@ -3174,7 +3174,7 @@
         <v>400</v>
       </c>
       <c r="D53" s="19">
-        <v>-0.557338405177926</v>
+        <v>-0.557337544384045</v>
       </c>
       <c r="E53" s="19">
         <v>-0.35</v>
@@ -3196,7 +3196,7 @@
         <v>300</v>
       </c>
       <c r="D54" s="19">
-        <v>-0.391130454551036</v>
+        <v>-0.391127306974695</v>
       </c>
       <c r="E54" s="19">
         <v>-0.25</v>
@@ -3218,7 +3218,7 @@
         <v>200</v>
       </c>
       <c r="D55" s="19">
-        <v>-0.213859451105874</v>
+        <v>-0.213855561229046</v>
       </c>
       <c r="E55" s="19">
         <v>-0.15</v>
@@ -3248,7 +3248,7 @@
         <v>100</v>
       </c>
       <c r="D56" s="19">
-        <v>-0.071723706902303</v>
+        <v>-0.0717205439464775</v>
       </c>
       <c r="E56" s="19">
         <v>-0.1</v>
@@ -3304,7 +3304,7 @@
         <v>-100</v>
       </c>
       <c r="D58" s="19">
-        <v>0.0110499876202059</v>
+        <v>0.0110461416411646</v>
       </c>
       <c r="E58" s="19">
         <v>-0.1</v>
@@ -3334,7 +3334,7 @@
         <v>-200</v>
       </c>
       <c r="D59" s="19">
-        <v>0.0133100784361085</v>
+        <v>0.0133061782095197</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="40"/>
@@ -3358,7 +3358,7 @@
         <v>67</v>
       </c>
       <c r="D61" s="19">
-        <v>-0.0856364982772476</v>
+        <v>-0.0856335735206054</v>
       </c>
       <c r="E61" s="19">
         <v>-0.25</v>
@@ -3405,20 +3405,20 @@
         <v>9900</v>
       </c>
       <c r="F66" s="16">
-        <v>9900.85382831404</v>
+        <v>9900.85382909452</v>
       </c>
       <c r="G66" s="35">
-        <v>9904.81022187536</v>
+        <v>9904.81022328424</v>
       </c>
       <c r="H66" s="35"/>
       <c r="I66" s="16">
-        <v>9907.51573884563</v>
+        <v>9907.51573758853</v>
       </c>
       <c r="J66" s="16">
-        <v>9908.83715471225</v>
+        <v>9908.83713968362</v>
       </c>
       <c r="K66" s="16">
-        <v>9908.79257217173</v>
+        <v>9908.79252658383</v>
       </c>
     </row>
     <row r="67">
@@ -3428,23 +3428,23 @@
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
       <c r="E67" s="16">
-        <v>14630.635112629</v>
+        <v>14630.6361340627</v>
       </c>
       <c r="F67" s="16">
-        <v>273.02529534145</v>
+        <v>273.026435311164</v>
       </c>
       <c r="G67" s="35">
-        <v>265.475718780496</v>
+        <v>265.477057769858</v>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="16">
-        <v>225.160705835178</v>
+        <v>225.162045957703</v>
       </c>
       <c r="J67" s="16">
-        <v>159.408294788374</v>
+        <v>159.409659799178</v>
       </c>
       <c r="K67" s="16">
-        <v>156.626641925881</v>
+        <v>156.626844849642</v>
       </c>
     </row>
     <row r="68">
@@ -3454,23 +3454,23 @@
       <c r="C68" s="36"/>
       <c r="D68" s="36"/>
       <c r="E68" s="16">
-        <v>896.390987261522</v>
+        <v>896.390577726636</v>
       </c>
       <c r="F68" s="16">
-        <v>708.6942947397</v>
+        <v>708.694089293295</v>
       </c>
       <c r="G68" s="35">
-        <v>665.206816910361</v>
+        <v>665.20728861668</v>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="16">
-        <v>630.693240224032</v>
+        <v>630.697752886123</v>
       </c>
       <c r="J68" s="16">
-        <v>698.365741218483</v>
+        <v>698.372648606188</v>
       </c>
       <c r="K68" s="16">
-        <v>686.155041349387</v>
+        <v>686.16372770619</v>
       </c>
     </row>
     <row r="69">
@@ -3509,20 +3509,20 @@
         <v>2012.55851152775</v>
       </c>
       <c r="F70" s="16">
-        <v>2010.26061587768</v>
+        <v>2010.2606162347</v>
       </c>
       <c r="G70" s="35">
-        <v>2008.22091482892</v>
+        <v>2008.22091421417</v>
       </c>
       <c r="H70" s="35"/>
       <c r="I70" s="16">
-        <v>2749.63384886979</v>
+        <v>2749.63384880047</v>
       </c>
       <c r="J70" s="16">
-        <v>2745.50635577787</v>
+        <v>2745.50635691591</v>
       </c>
       <c r="K70" s="16">
-        <v>2744.14469883969</v>
+        <v>2744.14469784166</v>
       </c>
     </row>
     <row r="71">
@@ -3532,23 +3532,23 @@
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
       <c r="E71" s="16">
-        <v>0.853828314064216</v>
+        <v>0.853829094542743</v>
       </c>
       <c r="F71" s="16">
-        <v>3.95639356167649</v>
+        <v>3.95639382841255</v>
       </c>
       <c r="G71" s="35">
-        <v>2.70551697038772</v>
+        <v>2.70551494621759</v>
       </c>
       <c r="H71" s="35"/>
       <c r="I71" s="16">
-        <v>1.3214158669358</v>
+        <v>1.32140218330343</v>
       </c>
       <c r="J71" s="16">
-        <v>-0.0445825401465117</v>
+        <v>-0.0446139794662013</v>
       </c>
       <c r="K71" s="16">
-        <v>-2.23470891981665</v>
+        <v>-2.23476654494664</v>
       </c>
     </row>
     <row r="72">
@@ -3584,23 +3584,23 @@
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
       <c r="E73" s="16">
-        <v>27440.4384397323</v>
+        <v>27440.4390524116</v>
       </c>
       <c r="F73" s="16">
-        <v>12896.7904278346</v>
+        <v>12896.7913637621</v>
       </c>
       <c r="G73" s="35">
-        <v>12846.4191893655</v>
+        <v>12846.4209988312</v>
       </c>
       <c r="H73" s="35"/>
       <c r="I73" s="16">
-        <v>13514.3249496416</v>
+        <v>13514.3307874161</v>
       </c>
       <c r="J73" s="16">
-        <v>13512.0729639568</v>
+        <v>13512.0811910254</v>
       </c>
       <c r="K73" s="16">
-        <v>13493.4842453669</v>
+        <v>13493.4930304364</v>
       </c>
     </row>
     <row r="74">
@@ -3610,23 +3610,23 @@
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="16">
-        <v>14630.635112629</v>
+        <v>14630.6361340627</v>
       </c>
       <c r="F74" s="16">
-        <v>273.025295341293</v>
+        <v>273.026435307458</v>
       </c>
       <c r="G74" s="35">
-        <v>265.475718780655</v>
+        <v>265.477057777701</v>
       </c>
       <c r="H74" s="35"/>
       <c r="I74" s="16">
-        <v>225.160705835455</v>
+        <v>225.162045954394</v>
       </c>
       <c r="J74" s="16">
-        <v>159.408294788437</v>
+        <v>159.409659802932</v>
       </c>
       <c r="K74" s="16">
-        <v>156.626641925539</v>
+        <v>156.626844850984</v>
       </c>
     </row>
     <row r="75">
@@ -3636,23 +3636,23 @@
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
       <c r="E75" s="16">
-        <v>902.312606947099</v>
+        <v>902.312031172939</v>
       </c>
       <c r="F75" s="16">
-        <v>714.766289191511</v>
+        <v>714.765992585158</v>
       </c>
       <c r="G75" s="35">
-        <v>671.44463465621</v>
+        <v>671.44528465997</v>
       </c>
       <c r="H75" s="35"/>
       <c r="I75" s="16">
-        <v>637.504024343756</v>
+        <v>637.510347853478</v>
       </c>
       <c r="J75" s="16">
-        <v>705.617075733516</v>
+        <v>705.626858461107</v>
       </c>
       <c r="K75" s="16">
-        <v>693.825025312891</v>
+        <v>693.837399931541</v>
       </c>
     </row>
     <row r="76">
@@ -3694,17 +3694,17 @@
         <v>2010.26061587767</v>
       </c>
       <c r="G77" s="35">
-        <v>2008.220914829</v>
+        <v>2008.22091482895</v>
       </c>
       <c r="H77" s="35"/>
       <c r="I77" s="16">
-        <v>2749.63384886902</v>
+        <v>2749.63384889813</v>
       </c>
       <c r="J77" s="16">
-        <v>2745.50635577861</v>
+        <v>2745.50635606903</v>
       </c>
       <c r="K77" s="16">
-        <v>2744.14469883973</v>
+        <v>2744.14469839829</v>
       </c>
     </row>
     <row r="78">
@@ -3714,23 +3714,23 @@
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
       <c r="E78" s="16">
-        <v>-5.9216196855668</v>
+        <v>-5.9214534462916</v>
       </c>
       <c r="F78" s="16">
-        <v>-6.07199445128163</v>
+        <v>-6.07190329243124</v>
       </c>
       <c r="G78" s="35">
-        <v>-6.23781774596993</v>
+        <v>-6.23799602398991</v>
       </c>
       <c r="H78" s="35"/>
       <c r="I78" s="16">
-        <v>-6.81078411891266</v>
+        <v>-6.81259497348967</v>
       </c>
       <c r="J78" s="16">
-        <v>-7.25133451545854</v>
+        <v>-7.25420989147015</v>
       </c>
       <c r="K78" s="16">
-        <v>-7.66998396254461</v>
+        <v>-7.67367222037583</v>
       </c>
     </row>
     <row r="79">
@@ -3766,23 +3766,23 @@
       <c r="C80" s="51"/>
       <c r="D80" s="51"/>
       <c r="E80" s="16">
-        <v>17539.5846114183</v>
+        <v>17539.5852233171</v>
       </c>
       <c r="F80" s="16">
-        <v>2991.98020595919</v>
+        <v>2991.98114047785</v>
       </c>
       <c r="G80" s="35">
-        <v>2938.90345051989</v>
+        <v>2938.90526124263</v>
       </c>
       <c r="H80" s="35"/>
       <c r="I80" s="16">
-        <v>3605.48779492932</v>
+        <v>3605.49364773252</v>
       </c>
       <c r="J80" s="16">
-        <v>3603.2803917851</v>
+        <v>3603.2886644416</v>
       </c>
       <c r="K80" s="16">
-        <v>3586.92638211562</v>
+        <v>3586.93527096043</v>
       </c>
     </row>
     <row r="81">
@@ -3792,23 +3792,23 @@
       <c r="C81" s="51"/>
       <c r="D81" s="51"/>
       <c r="E81" s="52">
-        <v>1.56448622060687</v>
+        <v>1.56448620095829</v>
       </c>
       <c r="F81" s="52">
-        <v>4.31045312470576</v>
+        <v>4.3104520911861</v>
       </c>
       <c r="G81" s="53">
-        <v>4.37116067460229</v>
+        <v>4.37115859712995</v>
       </c>
       <c r="H81" s="53"/>
       <c r="I81" s="52">
-        <v>3.74826534391486</v>
+        <v>3.74826087848337</v>
       </c>
       <c r="J81" s="52">
-        <v>3.7499365841088</v>
+        <v>3.74993025797987</v>
       </c>
       <c r="K81" s="52">
-        <v>3.76185145941251</v>
+        <v>3.76184458629034</v>
       </c>
     </row>
     <row r="83" ht="28.5" customHeight="1">
@@ -3848,23 +3848,23 @@
         <v>24556</v>
       </c>
       <c r="E84" s="12">
-        <v>6.81993765570518</v>
+        <v>6.8199376557051705</v>
       </c>
       <c r="F84" s="12">
-        <v>0.87830831045634072</v>
+        <v>0.87901178731521012</v>
       </c>
       <c r="G84" s="33">
-        <v>1.41868755791419</v>
+        <v>1.41976086375107</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="12">
-        <v>28.367540158597993</v>
+        <v>28.363017787656673</v>
       </c>
       <c r="J84" s="12">
-        <v>-1.26138882595289</v>
+        <v>-1.26705069906312</v>
       </c>
       <c r="K84" s="12">
-        <v>1.15536492691946</v>
+        <v>1.14541794614873</v>
       </c>
     </row>
     <row r="85">
@@ -3892,7 +3892,7 @@
         <v>-3.41799241564752</v>
       </c>
       <c r="K85" s="12">
-        <v>0.955359253190199</v>
+        <v>0.955359253190198</v>
       </c>
     </row>
     <row r="86">
@@ -3904,7 +3904,7 @@
         <v>3758</v>
       </c>
       <c r="E86" s="12">
-        <v>12.5808229477712</v>
+        <v>12.5808229477711</v>
       </c>
       <c r="F86" s="12">
         <v>1.6134845121755694</v>
@@ -3920,7 +3920,7 @@
         <v>-0.965645528675215</v>
       </c>
       <c r="K86" s="12">
-        <v>6.90053269730421</v>
+        <v>6.9005326973042</v>
       </c>
     </row>
     <row r="87">
@@ -3935,20 +3935,20 @@
         <v>6.4779096004104506</v>
       </c>
       <c r="F87" s="12">
-        <v>0.63430815990697942</v>
+        <v>0.63556549870502876</v>
       </c>
       <c r="G87" s="33">
-        <v>1.0864792154728</v>
+        <v>1.08839755728301</v>
       </c>
       <c r="H87" s="33"/>
       <c r="I87" s="12">
-        <v>23.650705238968563</v>
+        <v>23.648475058952336</v>
       </c>
       <c r="J87" s="12">
-        <v>-0.352468052887842</v>
+        <v>-0.362597653018305</v>
       </c>
       <c r="K87" s="12">
-        <v>-0.416888136400016</v>
+        <v>-0.434778327543069</v>
       </c>
     </row>
     <row r="88">
